--- a/homework/95.xlsx
+++ b/homework/95.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F9BF5D-2D36-47D3-8E5B-790E6E6DD3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5863F391-E4C7-469B-9B7E-40D7B51F71CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22350" yWindow="4845" windowWidth="23910" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="3075" windowWidth="23910" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>94.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,7 +590,7 @@
   <dimension ref="A3:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
